--- a/Implicit_bias_pavlovia/task/html/resources/cong_test.xlsx
+++ b/Implicit_bias_pavlovia/task/html/resources/cong_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpzjwp\Dropbox\_psychopyStuff\experiments\openIAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC7010F-A6EC-47F3-998F-A04DC2891C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="14010"/>
+    <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jonathan Peirce</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -81,36 +76,6 @@
     <t>stimImage</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>Hurt</t>
-  </si>
-  <si>
-    <t>Pleasure</t>
-  </si>
-  <si>
-    <t>Agony</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Evil</t>
-  </si>
-  <si>
-    <t>Joy</t>
-  </si>
-  <si>
-    <t>Nasty</t>
-  </si>
-  <si>
     <t>stimuli/black_1.jpg</t>
   </si>
   <si>
@@ -145,12 +110,42 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Feliz</t>
+  </si>
+  <si>
+    <t>Dolor</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Agonía</t>
+  </si>
+  <si>
+    <t>Amor</t>
+  </si>
+  <si>
+    <t>Malvado</t>
+  </si>
+  <si>
+    <t>Alegría</t>
+  </si>
+  <si>
+    <t>Desagradable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,20 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -498,221 +493,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>

--- a/Implicit_bias_pavlovia/task/html/resources/cong_test.xlsx
+++ b/Implicit_bias_pavlovia/task/html/resources/cong_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\html\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC7010F-A6EC-47F3-998F-A04DC2891C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C8755F-39CC-483F-8677-B8842C884603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>stimuli/blank.png</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Bueno</t>
   </si>
   <si>
@@ -140,13 +137,16 @@
   </si>
   <si>
     <t>Desagradable</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,8 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +481,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,8 +505,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -508,8 +516,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -519,8 +527,8 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -530,8 +538,8 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -541,8 +549,8 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -552,8 +560,8 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -563,8 +571,8 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -574,8 +582,8 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -585,8 +593,8 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -596,8 +604,8 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -608,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -619,7 +627,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -630,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -641,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -652,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -663,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -674,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -685,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -696,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -707,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -715,6 +723,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>